--- a/Suivie Coulage Beton.xlsx
+++ b/Suivie Coulage Beton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ES-SABRE\Desktop\Caisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00B5058-1C45-4939-A52C-9BBE83EA3847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B66D7ED-37B2-482A-A734-54756E8E6244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="120">
   <si>
     <t>Suivie beton</t>
   </si>
@@ -290,39 +290,6 @@
     <t>pompe stationnaire</t>
   </si>
   <si>
-    <t>Colonne1</t>
-  </si>
-  <si>
-    <t>Colonne2</t>
-  </si>
-  <si>
-    <t>Colonne3</t>
-  </si>
-  <si>
-    <t>Colonne4</t>
-  </si>
-  <si>
-    <t>Colonne5</t>
-  </si>
-  <si>
-    <t>Colonne6</t>
-  </si>
-  <si>
-    <t>Colonne7</t>
-  </si>
-  <si>
-    <t>Colonne8</t>
-  </si>
-  <si>
-    <t>378 x 16000  =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 coulages du 9/05/2023 au 9/07/2023: Total de 378 m3 </t>
-  </si>
-  <si>
-    <t>DA</t>
-  </si>
-  <si>
     <t>les coulages apres la reprise du chantier</t>
   </si>
   <si>
@@ -357,6 +324,90 @@
   </si>
   <si>
     <t>350*</t>
+  </si>
+  <si>
+    <t>Beton cyclopean</t>
+  </si>
+  <si>
+    <t>Poteaux Buanderie villa 8</t>
+  </si>
+  <si>
+    <t>Poteaux buanderie villa 7</t>
+  </si>
+  <si>
+    <t>Dalle buanderie (9,18) villa 2 + 3 poteau 30*30</t>
+  </si>
+  <si>
+    <t>Poteau villa 6 (3 poteau 30*30)</t>
+  </si>
+  <si>
+    <t>villa 15 (0,45hauteur*200) + roche</t>
+  </si>
+  <si>
+    <t>fin de travaux de fondation</t>
+  </si>
+  <si>
+    <t>adjuvant</t>
+  </si>
+  <si>
+    <t>2,8L*91m3*150DA</t>
+  </si>
+  <si>
+    <t>27/07/023</t>
+  </si>
+  <si>
+    <t>Beton propreté/rattrapage nivau</t>
+  </si>
+  <si>
+    <t>h +20cm</t>
+  </si>
+  <si>
+    <t>Dalle buanderie (9,18) Villa 7</t>
+  </si>
+  <si>
+    <t>Dalle buanderie (9,18) Villa 6</t>
+  </si>
+  <si>
+    <t>Beton propreté villa 13</t>
+  </si>
+  <si>
+    <t>coulage sans pompe (camion directement</t>
+  </si>
+  <si>
+    <t>Dalle buanderie (9,18) Villa 5</t>
+  </si>
+  <si>
+    <t>Dalle buanderie (9,18) Villa 3</t>
+  </si>
+  <si>
+    <t>Beton propreté villa 13 bache a eau</t>
+  </si>
+  <si>
+    <t>2,8*38m3*150Da</t>
+  </si>
+  <si>
+    <t>2,8*46m3*150Da</t>
+  </si>
+  <si>
+    <t>2,8*47*150</t>
+  </si>
+  <si>
+    <t>payé le 05/*08/2023</t>
+  </si>
+  <si>
+    <t>11780/15960</t>
+  </si>
+  <si>
+    <t>payé le 05/08/2023</t>
+  </si>
+  <si>
+    <t>semelle villa 12</t>
+  </si>
+  <si>
+    <t>nervure villa 11</t>
+  </si>
+  <si>
+    <t>raddier bache a eau 11-13-14</t>
   </si>
 </sst>
 </file>
@@ -621,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -671,56 +722,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -750,7 +813,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="18">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -775,605 +838,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1447,8 +911,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14D2828F-5326-4C2E-9353-6E4C5BC5087E}" name="Tableau1" displayName="Tableau1" ref="B7:I106" totalsRowCount="1" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="B7:I105" xr:uid="{43488F0C-BC15-4E55-8685-8AEC2271D03B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14D2828F-5326-4C2E-9353-6E4C5BC5087E}" name="Tableau1" displayName="Tableau1" ref="B7:I134" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="B7:I133" xr:uid="{43488F0C-BC15-4E55-8685-8AEC2271D03B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1459,33 +923,16 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{6229958B-914C-4129-9072-855C6B78B780}" name="Date" totalsRowFunction="count" dataDxfId="36" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{16D7AA6A-FD58-475B-AC7F-711A4D61A982}" name="Provenance" dataDxfId="35" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{D3662E16-1097-4E50-B1E0-C0E6D7FFF0F7}" name="Type" dataDxfId="34" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{BF2FCF6D-BA6F-4249-B3EC-428DA81E13D7}" name="Dosage" dataDxfId="33" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{3B7C0FFC-55D2-40BE-97D7-8754C379EEC2}" name="Element coulé" dataDxfId="32" totalsRowDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{5FB517CB-B1F9-49A8-A9E2-F54DC079ECCE}" name="Quantité d'element M³" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{41221DA7-8FF2-4F55-B700-777FB37E810B}" name="Q journée" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{8C6870F4-FEFA-4EE6-83AB-1535170A1AE4}" name="Note:" dataDxfId="29" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6229958B-914C-4129-9072-855C6B78B780}" name="Date" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{16D7AA6A-FD58-475B-AC7F-711A4D61A982}" name="Provenance" dataDxfId="14" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{D3662E16-1097-4E50-B1E0-C0E6D7FFF0F7}" name="Type" dataDxfId="13" totalsRowDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{BF2FCF6D-BA6F-4249-B3EC-428DA81E13D7}" name="Dosage" dataDxfId="12" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{3B7C0FFC-55D2-40BE-97D7-8754C379EEC2}" name="Element coulé" dataDxfId="11" totalsRowDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{5FB517CB-B1F9-49A8-A9E2-F54DC079ECCE}" name="Quantité d'element M³" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{41221DA7-8FF2-4F55-B700-777FB37E810B}" name="Q journée" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{8C6870F4-FEFA-4EE6-83AB-1535170A1AE4}" name="Note:" dataDxfId="8" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E4F840E-2D39-4B12-B243-073DE9410FE2}" name="Tableau2" displayName="Tableau2" ref="O105:V132" totalsRowCount="1" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="O105:V131" xr:uid="{017AD597-E071-4DA6-B2A4-CCD5E8D8C694}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B5A35065-BF27-4A2B-A1C6-5A15E5D99CF8}" name="Colonne1" totalsRowFunction="count" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{42191B1E-9155-45AF-AFFB-2098AC2EB1BE}" name="Colonne2" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{C91DE9F8-9118-4417-A4B2-86A25B71AE75}" name="Colonne3" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{01F02AC0-D608-474B-B7C0-02B6F7925AAC}" name="Colonne4" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{D8CD95B4-4CCF-4C0A-B509-B0E5231CB904}" name="Colonne5" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{1AFEE6D5-6D37-40CB-B028-80CEFE104E96}" name="Colonne6" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{A94E5D51-1DB4-4DDB-825E-2EC27A48F009}" name="Colonne7" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{293BEDEE-B892-4A84-A2E4-1556AEB51FEF}" name="Colonne8" dataDxfId="9" totalsRowDxfId="8"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1752,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:V136"/>
+  <dimension ref="B4:V140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,8 +1218,8 @@
     <col min="9" max="9" width="27.42578125" style="2" customWidth="1"/>
     <col min="10" max="10" width="24" style="2" customWidth="1"/>
     <col min="11" max="11" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="2" customWidth="1"/>
     <col min="16" max="16" width="11.85546875" style="2" customWidth="1"/>
@@ -2034,7 +1481,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -2044,7 +1491,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="13">
         <v>44761</v>
       </c>
@@ -2069,8 +1516,11 @@
       <c r="I18" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="6">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -2080,7 +1530,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="13">
         <v>44765</v>
       </c>
@@ -2106,7 +1556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -2116,7 +1566,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="13">
         <v>44768</v>
       </c>
@@ -2141,8 +1591,14 @@
       <c r="I22" s="14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M22" s="6">
+        <v>44768</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -2151,9 +1607,12 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="K23" s="34"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K23" s="38"/>
+      <c r="M23" s="6">
+        <v>44804</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="13">
         <v>44773</v>
       </c>
@@ -2178,9 +1637,9 @@
       <c r="I24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="34"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K24" s="38"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -2189,9 +1648,9 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="K25" s="34"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K25" s="38"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="13">
         <v>44775</v>
       </c>
@@ -2216,9 +1675,9 @@
       <c r="I26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="34"/>
-    </row>
-    <row r="27" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="J26" s="38"/>
+    </row>
+    <row r="27" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14" t="s">
@@ -2237,9 +1696,9 @@
       <c r="I27" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="34"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J27" s="38"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14" t="s">
@@ -2258,13 +1717,13 @@
       <c r="I28" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J28" s="34"/>
+      <c r="J28" s="38"/>
       <c r="M28" s="2">
         <f>3.1*2.78</f>
         <v>8.6180000000000003</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -2278,7 +1737,7 @@
         <v>6.1159999999999997</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="13">
         <v>44779</v>
       </c>
@@ -2304,7 +1763,7 @@
         <v>2.5019999999999998</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -2314,7 +1773,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13">
         <v>44783</v>
       </c>
@@ -3539,7 +2998,7 @@
       </c>
       <c r="I94" s="14"/>
       <c r="J94" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
@@ -3602,7 +3061,7 @@
         <v>350</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G98" s="14">
         <v>27</v>
@@ -3614,7 +3073,11 @@
         <v>74</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
+      </c>
+      <c r="P98" s="2">
+        <f>82</f>
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="2:22" x14ac:dyDescent="0.25">
@@ -3641,7 +3104,7 @@
         <v>350</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G100" s="14">
         <v>25</v>
@@ -3650,10 +3113,10 @@
         <v>78</v>
       </c>
       <c r="I100" s="14" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="L100" s="2">
         <f>25+28+5</f>
@@ -3666,7 +3129,7 @@
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
       <c r="F101" s="15" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G101" s="14">
         <v>28</v>
@@ -3686,14 +3149,14 @@
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
       <c r="F102" s="15" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G102" s="14">
         <v>5</v>
       </c>
       <c r="H102" s="14"/>
       <c r="I102" s="14" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" spans="2:22" x14ac:dyDescent="0.25">
@@ -3701,30 +3164,30 @@
       <c r="C103" s="14"/>
       <c r="D103" s="14"/>
       <c r="E103" s="14" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F103" s="15" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G103" s="14">
         <v>20</v>
       </c>
       <c r="H103" s="14"/>
       <c r="I103" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="O103" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="P103" s="41"/>
-      <c r="Q103" s="41"/>
-      <c r="R103" s="41"/>
-      <c r="S103" s="41"/>
-      <c r="T103" s="41"/>
-      <c r="U103" s="41"/>
-      <c r="V103" s="41"/>
-    </row>
-    <row r="104" spans="2:22" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="O103" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="P103" s="45"/>
+      <c r="Q103" s="45"/>
+      <c r="R103" s="45"/>
+      <c r="S103" s="45"/>
+      <c r="T103" s="45"/>
+      <c r="U103" s="45"/>
+      <c r="V103" s="45"/>
+    </row>
+    <row r="104" spans="2:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="13"/>
       <c r="C104" s="14"/>
       <c r="D104" s="14"/>
@@ -3733,604 +3196,821 @@
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
-    </row>
-    <row r="105" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B105" s="13"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="15"/>
+      <c r="M104" s="33">
+        <f>91-25-3</f>
+        <v>63</v>
+      </c>
+      <c r="O104" s="34"/>
+      <c r="P104" s="34"/>
+      <c r="Q104" s="34"/>
+      <c r="R104" s="34"/>
+      <c r="S104" s="34"/>
+      <c r="T104" s="34"/>
+      <c r="U104" s="34"/>
+      <c r="V104" s="34"/>
+    </row>
+    <row r="105" spans="2:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="13">
+        <v>45126</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" s="14">
+        <v>350</v>
+      </c>
+      <c r="F105" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
+      <c r="H105" s="14">
+        <v>7</v>
+      </c>
       <c r="I105" s="14"/>
-      <c r="O105" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="P105" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q105" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="R105" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="S105" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="T105" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="U105" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="V105" s="24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="106" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B106" s="8">
-        <f>SUBTOTAL(103,Tableau1[Date])</f>
-        <v>32</v>
-      </c>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17">
-        <f>SUBTOTAL(109,Tableau1[Quantité d''element M³])</f>
-        <v>1605.5</v>
-      </c>
-      <c r="H106" s="17">
-        <f>SUBTOTAL(109,Tableau1[Q journée])</f>
-        <v>2005</v>
-      </c>
-      <c r="I106" s="17"/>
-      <c r="O106" s="19">
-        <v>45055</v>
-      </c>
-      <c r="P106" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q106" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R106" s="4">
-        <v>350</v>
-      </c>
-      <c r="S106" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="T106" s="4">
-        <v>27.5</v>
-      </c>
-      <c r="U106" s="4">
-        <v>62.5</v>
-      </c>
-      <c r="V106" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="107" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="I107" s="2">
-        <v>6</v>
-      </c>
-      <c r="O107" s="19"/>
-      <c r="P107" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q107" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R107" s="4">
-        <v>350</v>
-      </c>
-      <c r="S107" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="T107" s="4">
-        <v>27.5</v>
-      </c>
-      <c r="U107" s="4"/>
-      <c r="V107" s="20" t="s">
-        <v>44</v>
-      </c>
+      <c r="J105" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="O105" s="34"/>
+      <c r="P105" s="34"/>
+      <c r="Q105" s="34"/>
+      <c r="R105" s="34"/>
+      <c r="S105" s="34"/>
+      <c r="T105" s="34"/>
+      <c r="U105" s="34"/>
+      <c r="V105" s="34"/>
+    </row>
+    <row r="106" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B106" s="13"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+    </row>
+    <row r="107" spans="2:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="13"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
     </row>
     <row r="108" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="O108" s="19"/>
-      <c r="P108" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q108" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R108" s="4">
-        <v>350</v>
-      </c>
-      <c r="S108" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="T108" s="4">
-        <v>9</v>
-      </c>
-      <c r="U108" s="4"/>
-      <c r="V108" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="109" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="O109" s="19"/>
+      <c r="B108" s="13">
+        <v>45127</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="14">
+        <v>350</v>
+      </c>
+      <c r="F108" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G108" s="14">
+        <v>63</v>
+      </c>
+      <c r="H108" s="14">
+        <v>91</v>
+      </c>
+      <c r="I108" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K108" s="2">
+        <f>38220</f>
+        <v>38220</v>
+      </c>
+      <c r="M108" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="O108" s="20"/>
+      <c r="P108" s="21">
+        <f>SUM(K108:K119)</f>
+        <v>93240</v>
+      </c>
+      <c r="Q108" s="21"/>
+      <c r="R108" s="21"/>
+      <c r="S108" s="22"/>
+      <c r="T108" s="21"/>
+      <c r="U108" s="21"/>
+      <c r="V108" s="23"/>
+    </row>
+    <row r="109" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B109" s="13"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G109" s="14">
+        <v>25</v>
+      </c>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+      <c r="L109" s="35"/>
+      <c r="O109" s="18"/>
       <c r="P109" s="4"/>
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
-      <c r="S109" s="18"/>
+      <c r="S109" s="17"/>
       <c r="T109" s="4"/>
       <c r="U109" s="4"/>
-      <c r="V109" s="20"/>
-    </row>
-    <row r="110" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="O110" s="19">
-        <v>45066</v>
-      </c>
-      <c r="P110" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q110" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R110" s="4">
-        <v>350</v>
-      </c>
-      <c r="S110" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="T110" s="4">
-        <v>9</v>
-      </c>
-      <c r="U110" s="4">
-        <v>18</v>
-      </c>
-      <c r="V110" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="111" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="O111" s="19"/>
-      <c r="P111" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q111" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R111" s="4">
-        <v>350</v>
-      </c>
-      <c r="S111" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="T111" s="4">
-        <v>9</v>
-      </c>
+      <c r="V109" s="19"/>
+    </row>
+    <row r="110" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B110" s="13"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G110" s="14">
+        <v>1</v>
+      </c>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+      <c r="L110" s="35"/>
+      <c r="O110" s="18"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4"/>
+      <c r="S110" s="17"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="19"/>
+    </row>
+    <row r="111" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B111" s="13"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="L111" s="35"/>
+      <c r="O111" s="18"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="17"/>
+      <c r="T111" s="4"/>
       <c r="U111" s="4"/>
-      <c r="V111" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="V111" s="19"/>
     </row>
     <row r="112" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="O112" s="19"/>
+      <c r="B112" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" s="14">
+        <v>350</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G112" s="14">
+        <v>38</v>
+      </c>
+      <c r="H112" s="14">
+        <v>38</v>
+      </c>
+      <c r="I112" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K112" s="2">
+        <f>2.8*38*150</f>
+        <v>15959.999999999998</v>
+      </c>
+      <c r="L112" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O112" s="18"/>
       <c r="P112" s="4"/>
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
-      <c r="S112" s="18"/>
+      <c r="S112" s="17"/>
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
-      <c r="V112" s="20"/>
-    </row>
-    <row r="113" spans="15:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="O113" s="19">
-        <v>45073</v>
-      </c>
-      <c r="P113" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q113" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R113" s="4">
-        <v>350</v>
-      </c>
-      <c r="S113" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="T113" s="4">
-        <v>30</v>
-      </c>
-      <c r="U113" s="4">
-        <v>67</v>
-      </c>
-      <c r="V113" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="114" spans="15:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="O114" s="19"/>
-      <c r="P114" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q114" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R114" s="4">
-        <v>350</v>
-      </c>
-      <c r="S114" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="T114" s="4">
-        <v>30</v>
-      </c>
+      <c r="V112" s="19"/>
+    </row>
+    <row r="113" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B113" s="13"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
+      <c r="L113" s="35"/>
+      <c r="O113" s="18"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4"/>
+      <c r="S113" s="17"/>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="19"/>
+    </row>
+    <row r="114" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B114" s="13">
+        <v>45136</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="14">
+        <v>350</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G114" s="14">
+        <v>23</v>
+      </c>
+      <c r="H114" s="14">
+        <v>46</v>
+      </c>
+      <c r="I114" s="14"/>
+      <c r="J114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K114" s="2">
+        <f>2.8*46*150</f>
+        <v>19319.999999999996</v>
+      </c>
+      <c r="L114" s="35"/>
+      <c r="O114" s="36">
+        <f>91+38+46+47</f>
+        <v>222</v>
+      </c>
+      <c r="P114" s="4">
+        <f>O114*2.8*150</f>
+        <v>93239.999999999985</v>
+      </c>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="4"/>
+      <c r="S114" s="17"/>
+      <c r="T114" s="4"/>
       <c r="U114" s="4"/>
-      <c r="V114" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="115" spans="15:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="O115" s="19"/>
-      <c r="P115" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q115" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R115" s="4">
-        <v>350</v>
-      </c>
-      <c r="S115" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="T115" s="4">
-        <v>9.5</v>
-      </c>
+      <c r="V114" s="19"/>
+    </row>
+    <row r="115" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B115" s="13"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G115" s="14">
+        <v>23</v>
+      </c>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="L115" s="35"/>
+      <c r="O115" s="36">
+        <f>O114*2.8</f>
+        <v>621.59999999999991</v>
+      </c>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="4"/>
+      <c r="S115" s="17"/>
+      <c r="T115" s="4"/>
       <c r="U115" s="4"/>
-      <c r="V115" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="116" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O116" s="19"/>
+      <c r="V115" s="19"/>
+    </row>
+    <row r="116" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B116" s="13"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="L116" s="35"/>
+      <c r="O116" s="18"/>
       <c r="P116" s="4"/>
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
-      <c r="S116" s="18"/>
+      <c r="S116" s="17"/>
       <c r="T116" s="4"/>
       <c r="U116" s="4"/>
-      <c r="V116" s="20"/>
-    </row>
-    <row r="117" spans="15:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="O117" s="19">
-        <v>45083</v>
-      </c>
-      <c r="P117" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q117" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R117" s="4">
-        <v>350</v>
-      </c>
-      <c r="S117" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="T117" s="4">
-        <v>4</v>
-      </c>
-      <c r="U117" s="4">
-        <v>70</v>
-      </c>
-      <c r="V117" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="118" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O118" s="19"/>
-      <c r="P118" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q118" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R118" s="4">
-        <v>350</v>
-      </c>
-      <c r="S118" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="T118" s="4">
-        <v>9</v>
-      </c>
+      <c r="V116" s="19"/>
+    </row>
+    <row r="117" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B117" s="13">
+        <v>45141</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="14">
+        <v>200</v>
+      </c>
+      <c r="F117" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G117" s="14">
+        <v>30.5</v>
+      </c>
+      <c r="H117" s="14">
+        <v>30.5</v>
+      </c>
+      <c r="I117" s="14"/>
+      <c r="J117" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L117" s="35"/>
+      <c r="O117" s="18"/>
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+      <c r="R117" s="4"/>
+      <c r="S117" s="17"/>
+      <c r="T117" s="4"/>
+      <c r="U117" s="4"/>
+      <c r="V117" s="19"/>
+    </row>
+    <row r="118" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B118" s="13"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
+      <c r="L118" s="35"/>
+      <c r="O118" s="18"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="4"/>
+      <c r="S118" s="17"/>
+      <c r="T118" s="4"/>
       <c r="U118" s="4"/>
-      <c r="V118" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="119" spans="15:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="O119" s="19"/>
-      <c r="P119" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q119" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R119" s="4">
-        <v>350</v>
-      </c>
-      <c r="S119" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="T119" s="4">
-        <v>28</v>
-      </c>
+      <c r="V118" s="19"/>
+    </row>
+    <row r="119" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B119" s="13">
+        <v>45143</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="14">
+        <v>350</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G119" s="14">
+        <v>23</v>
+      </c>
+      <c r="H119" s="14">
+        <v>47</v>
+      </c>
+      <c r="I119" s="14"/>
+      <c r="J119" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K119" s="2">
+        <f>2.8*47*150</f>
+        <v>19740</v>
+      </c>
+      <c r="L119" s="35"/>
+      <c r="O119" s="18"/>
+      <c r="P119" s="4"/>
+      <c r="Q119" s="4"/>
+      <c r="R119" s="4"/>
+      <c r="S119" s="17"/>
+      <c r="T119" s="4"/>
       <c r="U119" s="4"/>
-      <c r="V119" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="120" spans="15:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="O120" s="19"/>
-      <c r="P120" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q120" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R120" s="4">
-        <v>350</v>
-      </c>
-      <c r="S120" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="T120" s="4">
-        <v>28</v>
-      </c>
+      <c r="V119" s="19"/>
+    </row>
+    <row r="120" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B120" s="13"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G120" s="14">
+        <v>23</v>
+      </c>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="O120" s="18"/>
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="4"/>
+      <c r="S120" s="17"/>
+      <c r="T120" s="4"/>
       <c r="U120" s="4"/>
-      <c r="V120" s="20"/>
-    </row>
-    <row r="121" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O121" s="19"/>
+      <c r="V120" s="19"/>
+    </row>
+    <row r="121" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B121" s="13"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G121" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="O121" s="18"/>
       <c r="P121" s="4"/>
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
-      <c r="S121" s="18"/>
+      <c r="S121" s="17"/>
       <c r="T121" s="4"/>
       <c r="U121" s="4"/>
-      <c r="V121" s="20"/>
-    </row>
-    <row r="122" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O122" s="19">
-        <v>45084</v>
-      </c>
-      <c r="P122" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q122" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R122" s="4">
-        <v>350</v>
-      </c>
-      <c r="S122" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="T122" s="4">
-        <v>29</v>
-      </c>
-      <c r="U122" s="4">
-        <v>29</v>
-      </c>
-      <c r="V122" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="123" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O123" s="19"/>
+      <c r="V121" s="19"/>
+    </row>
+    <row r="122" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B122" s="13"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="O122" s="18"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+      <c r="R122" s="4"/>
+      <c r="S122" s="17"/>
+      <c r="T122" s="4"/>
+      <c r="U122" s="4"/>
+      <c r="V122" s="19"/>
+    </row>
+    <row r="123" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="13"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="O123" s="18"/>
       <c r="P123" s="4"/>
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
-      <c r="S123" s="18"/>
+      <c r="S123" s="17"/>
       <c r="T123" s="4"/>
       <c r="U123" s="4"/>
-      <c r="V123" s="20"/>
-    </row>
-    <row r="124" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O124" s="19">
-        <v>45095</v>
-      </c>
-      <c r="P124" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q124" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R124" s="4">
-        <v>350</v>
-      </c>
-      <c r="S124" s="18" t="s">
-        <v>72</v>
-      </c>
+      <c r="V123" s="19"/>
+    </row>
+    <row r="124" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B124" s="13"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="O124" s="18"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
+      <c r="R124" s="4"/>
+      <c r="S124" s="17"/>
       <c r="T124" s="4"/>
-      <c r="U124" s="4">
-        <v>65</v>
-      </c>
-      <c r="V124" s="20"/>
-    </row>
-    <row r="125" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O125" s="19"/>
+      <c r="U124" s="4"/>
+      <c r="V124" s="19"/>
+    </row>
+    <row r="125" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B125" s="13"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="O125" s="18"/>
       <c r="P125" s="4"/>
       <c r="Q125" s="4"/>
       <c r="R125" s="4"/>
-      <c r="S125" s="18"/>
+      <c r="S125" s="17"/>
       <c r="T125" s="4"/>
       <c r="U125" s="4"/>
-      <c r="V125" s="20"/>
-    </row>
-    <row r="126" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O126" s="19">
-        <v>45097</v>
-      </c>
-      <c r="P126" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q126" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R126" s="4">
-        <v>350</v>
-      </c>
-      <c r="S126" s="18" t="s">
-        <v>73</v>
-      </c>
+      <c r="V125" s="19"/>
+    </row>
+    <row r="126" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B126" s="13"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
+      <c r="O126" s="18"/>
+      <c r="P126" s="4"/>
+      <c r="Q126" s="4"/>
+      <c r="R126" s="4"/>
+      <c r="S126" s="17"/>
       <c r="T126" s="4"/>
-      <c r="U126" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="V126" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="127" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O127" s="19"/>
+      <c r="U126" s="4"/>
+      <c r="V126" s="19"/>
+    </row>
+    <row r="127" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B127" s="13"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="O127" s="18"/>
       <c r="P127" s="4"/>
       <c r="Q127" s="4"/>
       <c r="R127" s="4"/>
-      <c r="S127" s="18"/>
+      <c r="S127" s="17"/>
       <c r="T127" s="4"/>
       <c r="U127" s="4"/>
-      <c r="V127" s="20"/>
-    </row>
-    <row r="128" spans="15:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="O128" s="19">
-        <v>45110</v>
-      </c>
-      <c r="P128" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q128" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R128" s="4">
-        <v>350</v>
-      </c>
-      <c r="S128" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="T128" s="4">
-        <v>24</v>
-      </c>
-      <c r="U128" s="4">
-        <v>57</v>
-      </c>
-      <c r="V128" s="20"/>
-    </row>
-    <row r="129" spans="15:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="O129" s="19"/>
+      <c r="V127" s="19"/>
+    </row>
+    <row r="128" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B128" s="13"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="O128" s="18"/>
+      <c r="P128" s="4"/>
+      <c r="Q128" s="4"/>
+      <c r="R128" s="4"/>
+      <c r="S128" s="17"/>
+      <c r="T128" s="4"/>
+      <c r="U128" s="4"/>
+      <c r="V128" s="19"/>
+    </row>
+    <row r="129" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B129" s="13"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="O129" s="18"/>
       <c r="P129" s="4"/>
       <c r="Q129" s="4"/>
       <c r="R129" s="4"/>
-      <c r="S129" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="T129" s="4">
-        <v>24</v>
-      </c>
+      <c r="S129" s="17"/>
+      <c r="T129" s="4"/>
       <c r="U129" s="4"/>
-      <c r="V129" s="20"/>
-    </row>
-    <row r="130" spans="15:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="O130" s="19"/>
+      <c r="V129" s="19"/>
+    </row>
+    <row r="130" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B130" s="13">
+        <v>45237</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="14">
+        <v>350</v>
+      </c>
+      <c r="F130" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G130" s="14">
+        <v>38</v>
+      </c>
+      <c r="H130" s="14">
+        <v>55</v>
+      </c>
+      <c r="I130" s="14"/>
+      <c r="O130" s="18"/>
       <c r="P130" s="4"/>
       <c r="Q130" s="4"/>
       <c r="R130" s="4"/>
-      <c r="S130" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="T130" s="4">
+      <c r="S130" s="17"/>
+      <c r="T130" s="4"/>
+      <c r="U130" s="4"/>
+      <c r="V130" s="19"/>
+    </row>
+    <row r="131" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B131" s="13"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="14">
+        <v>350</v>
+      </c>
+      <c r="F131" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G131" s="14">
+        <v>8</v>
+      </c>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="O131" s="18"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+      <c r="R131" s="4"/>
+      <c r="S131" s="17"/>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4"/>
+      <c r="V131" s="19"/>
+    </row>
+    <row r="132" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B132" s="13"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="14">
+        <v>350</v>
+      </c>
+      <c r="F132" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G132" s="14">
         <v>9</v>
       </c>
-      <c r="U130" s="4"/>
-      <c r="V130" s="20"/>
-    </row>
-    <row r="131" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O131" s="25"/>
-      <c r="P131" s="26"/>
-      <c r="Q131" s="26"/>
-      <c r="R131" s="26"/>
-      <c r="S131" s="27"/>
-      <c r="T131" s="26"/>
-      <c r="U131" s="26"/>
-      <c r="V131" s="28"/>
-    </row>
-    <row r="132" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O132" s="29">
-        <f>SUBTOTAL(103,Tableau2[Colonne1])</f>
-        <v>8</v>
-      </c>
-      <c r="P132" s="26"/>
-      <c r="Q132" s="26"/>
-      <c r="R132" s="26"/>
-      <c r="S132" s="27"/>
-      <c r="T132" s="26"/>
-      <c r="U132" s="26">
-        <f>SUBTOTAL(109,Tableau2[Colonne7])</f>
-        <v>378</v>
-      </c>
-      <c r="V132" s="28"/>
-    </row>
-    <row r="133" spans="15:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="134" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O134" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="P134" s="36"/>
-      <c r="Q134" s="36"/>
-      <c r="R134" s="36"/>
-      <c r="S134" s="36"/>
-      <c r="T134" s="36"/>
-      <c r="U134" s="36"/>
-      <c r="V134" s="37"/>
-    </row>
-    <row r="135" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O135" s="38"/>
-      <c r="P135" s="39"/>
-      <c r="Q135" s="39"/>
-      <c r="R135" s="39"/>
-      <c r="S135" s="39"/>
-      <c r="T135" s="39"/>
-      <c r="U135" s="39"/>
-      <c r="V135" s="40"/>
-    </row>
-    <row r="136" spans="15:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O136" s="30"/>
-      <c r="P136" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q136" s="32">
-        <f>378*16000</f>
-        <v>6048000</v>
-      </c>
-      <c r="R136" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="S136" s="31"/>
-      <c r="T136" s="31"/>
-      <c r="U136" s="31"/>
-      <c r="V136" s="33"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="O132" s="18"/>
+      <c r="P132" s="4"/>
+      <c r="Q132" s="4"/>
+      <c r="R132" s="4"/>
+      <c r="S132" s="17"/>
+      <c r="T132" s="4"/>
+      <c r="U132" s="4"/>
+      <c r="V132" s="19"/>
+    </row>
+    <row r="133" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B133" s="13"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="O133" s="18"/>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
+      <c r="R133" s="4"/>
+      <c r="S133" s="17"/>
+      <c r="T133" s="4"/>
+      <c r="U133" s="4"/>
+      <c r="V133" s="19"/>
+    </row>
+    <row r="134" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B134" s="8">
+        <f>SUBTOTAL(103,Tableau1[Date])</f>
+        <v>39</v>
+      </c>
+      <c r="C134" s="37"/>
+      <c r="D134" s="37"/>
+      <c r="E134" s="37"/>
+      <c r="F134" s="37"/>
+      <c r="G134" s="37">
+        <f>SUBTOTAL(109,Tableau1[Quantité d''element M³])</f>
+        <v>1910.5</v>
+      </c>
+      <c r="H134" s="37">
+        <f>SUBTOTAL(109,Tableau1[Q journée])</f>
+        <v>2319.5</v>
+      </c>
+      <c r="I134" s="37"/>
+      <c r="O134" s="18"/>
+      <c r="P134" s="4"/>
+      <c r="Q134" s="4"/>
+      <c r="R134" s="4"/>
+      <c r="S134" s="17"/>
+      <c r="T134" s="4"/>
+      <c r="U134" s="4"/>
+      <c r="V134" s="19"/>
+    </row>
+    <row r="135" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="I135" s="2">
+        <v>6</v>
+      </c>
+      <c r="O135" s="24"/>
+      <c r="P135" s="25"/>
+      <c r="Q135" s="25"/>
+      <c r="R135" s="25"/>
+      <c r="S135" s="26"/>
+      <c r="T135" s="25"/>
+      <c r="U135" s="25"/>
+      <c r="V135" s="27"/>
+    </row>
+    <row r="136" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="O136" s="28"/>
+      <c r="P136" s="25"/>
+      <c r="Q136" s="25"/>
+      <c r="R136" s="25"/>
+      <c r="S136" s="26"/>
+      <c r="T136" s="25"/>
+      <c r="U136" s="25"/>
+      <c r="V136" s="27"/>
+    </row>
+    <row r="137" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C138" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D138" s="2">
+        <f>91*2.8*150</f>
+        <v>38220</v>
+      </c>
+      <c r="O138" s="39"/>
+      <c r="P138" s="40"/>
+      <c r="Q138" s="40"/>
+      <c r="R138" s="40"/>
+      <c r="S138" s="40"/>
+      <c r="T138" s="40"/>
+      <c r="U138" s="40"/>
+      <c r="V138" s="41"/>
+    </row>
+    <row r="139" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="O139" s="42"/>
+      <c r="P139" s="43"/>
+      <c r="Q139" s="43"/>
+      <c r="R139" s="43"/>
+      <c r="S139" s="43"/>
+      <c r="T139" s="43"/>
+      <c r="U139" s="43"/>
+      <c r="V139" s="44"/>
+    </row>
+    <row r="140" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O140" s="29"/>
+      <c r="P140" s="30"/>
+      <c r="Q140" s="31"/>
+      <c r="R140" s="30"/>
+      <c r="S140" s="30"/>
+      <c r="T140" s="30"/>
+      <c r="U140" s="30"/>
+      <c r="V140" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="K23:K25"/>
     <mergeCell ref="J26:J28"/>
-    <mergeCell ref="O134:V135"/>
+    <mergeCell ref="O138:V139"/>
     <mergeCell ref="O103:V103"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4347,9 +4027,8 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Suivie Coulage Beton.xlsx
+++ b/Suivie Coulage Beton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ES-SABRE\Desktop\Caisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B66D7ED-37B2-482A-A734-54756E8E6244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F213C3AE-C7FE-4542-A287-52D7D7AE9A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="142">
   <si>
     <t>Suivie beton</t>
   </si>
@@ -408,6 +408,72 @@
   </si>
   <si>
     <t>raddier bache a eau 11-13-14</t>
+  </si>
+  <si>
+    <t>nervure villa 15</t>
+  </si>
+  <si>
+    <t>nervure villa 12</t>
+  </si>
+  <si>
+    <t>radier bache a eau 12</t>
+  </si>
+  <si>
+    <t>rogard villa 11</t>
+  </si>
+  <si>
+    <t>semelle piscine villa 3-4</t>
+  </si>
+  <si>
+    <t>Beton de propreté piscine 5-6</t>
+  </si>
+  <si>
+    <t>semelles piscine villa 1-2</t>
+  </si>
+  <si>
+    <t>beton propreté villa 3-4 piscine</t>
+  </si>
+  <si>
+    <t>semelle piscine villa 5-6</t>
+  </si>
+  <si>
+    <t>Beton de propreté piscine 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nervure villa 14 </t>
+  </si>
+  <si>
+    <t>Bache a Eau villa 15</t>
+  </si>
+  <si>
+    <t>Bache a eau villa 13</t>
+  </si>
+  <si>
+    <t>semelle fillante de la villa 13</t>
+  </si>
+  <si>
+    <t>semelle fillante de la villa 15</t>
+  </si>
+  <si>
+    <t>ordinaire</t>
+  </si>
+  <si>
+    <t>nervure villa 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benyoussef </t>
+  </si>
+  <si>
+    <t>beton propreté villa 11 et 12</t>
+  </si>
+  <si>
+    <t>semelle villa 14</t>
+  </si>
+  <si>
+    <t>semelle villa 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semelle piscine villa 7 </t>
   </si>
 </sst>
 </file>
@@ -672,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -780,6 +846,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -911,8 +986,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14D2828F-5326-4C2E-9353-6E4C5BC5087E}" name="Tableau1" displayName="Tableau1" ref="B7:I134" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="B7:I133" xr:uid="{43488F0C-BC15-4E55-8685-8AEC2271D03B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14D2828F-5326-4C2E-9353-6E4C5BC5087E}" name="Tableau1" displayName="Tableau1" ref="B7:I160" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="B7:I159" xr:uid="{43488F0C-BC15-4E55-8685-8AEC2271D03B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1199,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:V140"/>
+  <dimension ref="B4:V167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="J138" sqref="J138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,7 +1293,7 @@
     <col min="9" max="9" width="27.42578125" style="2" customWidth="1"/>
     <col min="10" max="10" width="24" style="2" customWidth="1"/>
     <col min="11" max="11" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="2" customWidth="1"/>
@@ -1607,7 +1682,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="K23" s="38"/>
+      <c r="K23" s="41"/>
       <c r="M23" s="6">
         <v>44804</v>
       </c>
@@ -1637,7 +1712,7 @@
       <c r="I24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="38"/>
+      <c r="K24" s="41"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
@@ -1648,7 +1723,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="K25" s="38"/>
+      <c r="K25" s="41"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="13">
@@ -1675,7 +1750,7 @@
       <c r="I26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="38"/>
+      <c r="J26" s="41"/>
     </row>
     <row r="27" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
@@ -1696,7 +1771,7 @@
       <c r="I27" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="38"/>
+      <c r="J27" s="41"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
@@ -1717,7 +1792,7 @@
       <c r="I28" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J28" s="38"/>
+      <c r="J28" s="41"/>
       <c r="M28" s="2">
         <f>3.1*2.78</f>
         <v>8.6180000000000003</v>
@@ -3176,16 +3251,16 @@
       <c r="I103" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="O103" s="45" t="s">
+      <c r="O103" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="P103" s="45"/>
-      <c r="Q103" s="45"/>
-      <c r="R103" s="45"/>
-      <c r="S103" s="45"/>
-      <c r="T103" s="45"/>
-      <c r="U103" s="45"/>
-      <c r="V103" s="45"/>
+      <c r="P103" s="48"/>
+      <c r="Q103" s="48"/>
+      <c r="R103" s="48"/>
+      <c r="S103" s="48"/>
+      <c r="T103" s="48"/>
+      <c r="U103" s="48"/>
+      <c r="V103" s="48"/>
     </row>
     <row r="104" spans="2:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="13"/>
@@ -3699,6 +3774,9 @@
       <c r="G123" s="14"/>
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
+      <c r="J123" s="37" t="s">
+        <v>137</v>
+      </c>
       <c r="O123" s="18"/>
       <c r="P123" s="4"/>
       <c r="Q123" s="4"/>
@@ -3709,12 +3787,24 @@
       <c r="V123" s="19"/>
     </row>
     <row r="124" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B124" s="13"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="14"/>
+      <c r="B124" s="13">
+        <v>45206</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="14">
+        <v>350</v>
+      </c>
+      <c r="F124" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G124" s="14">
+        <v>54.5</v>
+      </c>
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
       <c r="O124" s="18"/>
@@ -3744,14 +3834,28 @@
       <c r="U125" s="4"/>
       <c r="V125" s="19"/>
     </row>
-    <row r="126" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B126" s="13"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="14"/>
-      <c r="H126" s="14"/>
+    <row r="126" spans="2:22" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="13">
+        <v>45213</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="14">
+        <v>400</v>
+      </c>
+      <c r="F126" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G126" s="14">
+        <v>52</v>
+      </c>
+      <c r="H126" s="14">
+        <v>68</v>
+      </c>
       <c r="I126" s="14"/>
       <c r="O126" s="18"/>
       <c r="P126" s="4"/>
@@ -3764,11 +3868,21 @@
     </row>
     <row r="127" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B127" s="13"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="14"/>
+      <c r="C127" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E127" s="14">
+        <v>350</v>
+      </c>
+      <c r="F127" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G127" s="14">
+        <v>16</v>
+      </c>
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
       <c r="O127" s="18"/>
@@ -3780,7 +3894,7 @@
       <c r="U127" s="4"/>
       <c r="V127" s="19"/>
     </row>
-    <row r="128" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:22" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="13"/>
       <c r="C128" s="14"/>
       <c r="D128" s="14"/>
@@ -3798,14 +3912,28 @@
       <c r="U128" s="4"/>
       <c r="V128" s="19"/>
     </row>
-    <row r="129" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B129" s="13"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
+    <row r="129" spans="2:22" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="13">
+        <v>45218</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="14">
+        <v>200</v>
+      </c>
+      <c r="F129" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G129" s="14">
+        <v>81</v>
+      </c>
+      <c r="H129" s="14">
+        <v>81</v>
+      </c>
       <c r="I129" s="14"/>
       <c r="O129" s="18"/>
       <c r="P129" s="4"/>
@@ -3816,28 +3944,14 @@
       <c r="U129" s="4"/>
       <c r="V129" s="19"/>
     </row>
-    <row r="130" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B130" s="13">
-        <v>45237</v>
-      </c>
-      <c r="C130" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D130" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E130" s="14">
-        <v>350</v>
-      </c>
-      <c r="F130" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="G130" s="14">
-        <v>38</v>
-      </c>
-      <c r="H130" s="14">
-        <v>55</v>
-      </c>
+    <row r="130" spans="2:22" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="13"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
       <c r="I130" s="14"/>
       <c r="O130" s="18"/>
       <c r="P130" s="4"/>
@@ -3848,9 +3962,13 @@
       <c r="U130" s="4"/>
       <c r="V130" s="19"/>
     </row>
-    <row r="131" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B131" s="13"/>
-      <c r="C131" s="14"/>
+    <row r="131" spans="2:22" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="13">
+        <v>45227</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>5</v>
+      </c>
       <c r="D131" s="14" t="s">
         <v>6</v>
       </c>
@@ -3858,12 +3976,14 @@
         <v>350</v>
       </c>
       <c r="F131" s="15" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="G131" s="14">
-        <v>8</v>
-      </c>
-      <c r="H131" s="14"/>
+        <v>45</v>
+      </c>
+      <c r="H131" s="14">
+        <v>87</v>
+      </c>
       <c r="I131" s="14"/>
       <c r="O131" s="18"/>
       <c r="P131" s="4"/>
@@ -3874,20 +3994,22 @@
       <c r="U131" s="4"/>
       <c r="V131" s="19"/>
     </row>
-    <row r="132" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:22" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B132" s="13"/>
-      <c r="C132" s="14"/>
+      <c r="C132" s="14" t="s">
+        <v>5</v>
+      </c>
       <c r="D132" s="14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E132" s="14">
         <v>350</v>
       </c>
       <c r="F132" s="15" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="G132" s="14">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
@@ -3918,24 +4040,29 @@
       <c r="U133" s="4"/>
       <c r="V133" s="19"/>
     </row>
-    <row r="134" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B134" s="8">
-        <f>SUBTOTAL(103,Tableau1[Date])</f>
-        <v>39</v>
-      </c>
-      <c r="C134" s="37"/>
-      <c r="D134" s="37"/>
-      <c r="E134" s="37"/>
-      <c r="F134" s="37"/>
-      <c r="G134" s="37">
-        <f>SUBTOTAL(109,Tableau1[Quantité d''element M³])</f>
-        <v>1910.5</v>
-      </c>
-      <c r="H134" s="37">
-        <f>SUBTOTAL(109,Tableau1[Q journée])</f>
-        <v>2319.5</v>
-      </c>
-      <c r="I134" s="37"/>
+    <row r="134" spans="2:22" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="13">
+        <v>45234</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134" s="14">
+        <v>350</v>
+      </c>
+      <c r="F134" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G134" s="14">
+        <v>21</v>
+      </c>
+      <c r="H134" s="14">
+        <v>30.5</v>
+      </c>
+      <c r="I134" s="14"/>
       <c r="O134" s="18"/>
       <c r="P134" s="4"/>
       <c r="Q134" s="4"/>
@@ -3945,76 +4072,577 @@
       <c r="U134" s="4"/>
       <c r="V134" s="19"/>
     </row>
-    <row r="135" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="I135" s="2">
-        <v>6</v>
-      </c>
-      <c r="O135" s="24"/>
-      <c r="P135" s="25"/>
-      <c r="Q135" s="25"/>
-      <c r="R135" s="25"/>
-      <c r="S135" s="26"/>
-      <c r="T135" s="25"/>
-      <c r="U135" s="25"/>
-      <c r="V135" s="27"/>
+    <row r="135" spans="2:22" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="13"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135" s="14">
+        <v>200</v>
+      </c>
+      <c r="F135" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G135" s="14">
+        <v>9.5</v>
+      </c>
+      <c r="H135" s="14"/>
+      <c r="I135" s="14"/>
+      <c r="O135" s="18"/>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4"/>
+      <c r="R135" s="4"/>
+      <c r="S135" s="17"/>
+      <c r="T135" s="4"/>
+      <c r="U135" s="4"/>
+      <c r="V135" s="19"/>
     </row>
     <row r="136" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="O136" s="28"/>
-      <c r="P136" s="25"/>
-      <c r="Q136" s="25"/>
-      <c r="R136" s="25"/>
-      <c r="S136" s="26"/>
-      <c r="T136" s="25"/>
-      <c r="U136" s="25"/>
-      <c r="V136" s="27"/>
-    </row>
-    <row r="137" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="B136" s="13"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="14"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
+      <c r="O136" s="18"/>
+      <c r="P136" s="4"/>
+      <c r="Q136" s="4"/>
+      <c r="R136" s="4"/>
+      <c r="S136" s="17"/>
+      <c r="T136" s="4"/>
+      <c r="U136" s="4"/>
+      <c r="V136" s="19"/>
+    </row>
+    <row r="137" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B137" s="13">
+        <v>45237</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="14">
+        <v>350</v>
+      </c>
+      <c r="F137" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G137" s="14">
+        <v>38</v>
+      </c>
+      <c r="H137" s="14">
+        <v>55</v>
+      </c>
+      <c r="I137" s="14"/>
+      <c r="L137" s="2">
+        <f>41+8+8+3</f>
+        <v>60</v>
+      </c>
+      <c r="O137" s="18"/>
+      <c r="P137" s="4"/>
+      <c r="Q137" s="4"/>
+      <c r="R137" s="4"/>
+      <c r="S137" s="17"/>
+      <c r="T137" s="4"/>
+      <c r="U137" s="4"/>
+      <c r="V137" s="19"/>
+    </row>
     <row r="138" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C138" s="2" t="s">
+      <c r="B138" s="13"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="14">
+        <v>350</v>
+      </c>
+      <c r="F138" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G138" s="14">
+        <v>8</v>
+      </c>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14"/>
+      <c r="O138" s="18"/>
+      <c r="P138" s="4"/>
+      <c r="Q138" s="4"/>
+      <c r="R138" s="4"/>
+      <c r="S138" s="17"/>
+      <c r="T138" s="4"/>
+      <c r="U138" s="4"/>
+      <c r="V138" s="19"/>
+    </row>
+    <row r="139" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B139" s="13"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="14">
+        <v>350</v>
+      </c>
+      <c r="F139" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G139" s="14">
+        <v>9</v>
+      </c>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="O139" s="18"/>
+      <c r="P139" s="4"/>
+      <c r="Q139" s="4"/>
+      <c r="R139" s="4"/>
+      <c r="S139" s="17"/>
+      <c r="T139" s="4"/>
+      <c r="U139" s="4"/>
+      <c r="V139" s="19"/>
+    </row>
+    <row r="140" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B140" s="13"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
+      <c r="O140" s="18"/>
+      <c r="P140" s="4"/>
+      <c r="Q140" s="4"/>
+      <c r="R140" s="4"/>
+      <c r="S140" s="17"/>
+      <c r="T140" s="4"/>
+      <c r="U140" s="4"/>
+      <c r="V140" s="19"/>
+    </row>
+    <row r="141" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B141" s="13">
+        <v>45241</v>
+      </c>
+      <c r="C141" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="14">
+        <v>400</v>
+      </c>
+      <c r="F141" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G141" s="14">
+        <v>41</v>
+      </c>
+      <c r="H141" s="14">
+        <v>61</v>
+      </c>
+      <c r="I141" s="14"/>
+      <c r="O141" s="18"/>
+      <c r="P141" s="4"/>
+      <c r="Q141" s="4"/>
+      <c r="R141" s="4"/>
+      <c r="S141" s="17"/>
+      <c r="T141" s="4"/>
+      <c r="U141" s="4"/>
+      <c r="V141" s="19"/>
+    </row>
+    <row r="142" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B142" s="13"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="14">
+        <v>350</v>
+      </c>
+      <c r="F142" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G142" s="14">
+        <v>8</v>
+      </c>
+      <c r="H142" s="14"/>
+      <c r="I142" s="14"/>
+      <c r="O142" s="24"/>
+      <c r="P142" s="25"/>
+      <c r="Q142" s="25"/>
+      <c r="R142" s="25"/>
+      <c r="S142" s="26"/>
+      <c r="T142" s="25"/>
+      <c r="U142" s="25"/>
+      <c r="V142" s="27"/>
+    </row>
+    <row r="143" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B143" s="13"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" s="14">
+        <v>350</v>
+      </c>
+      <c r="F143" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G143" s="14">
+        <v>8</v>
+      </c>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
+      <c r="O143" s="28"/>
+      <c r="P143" s="25"/>
+      <c r="Q143" s="25"/>
+      <c r="R143" s="25"/>
+      <c r="S143" s="26"/>
+      <c r="T143" s="25"/>
+      <c r="U143" s="25"/>
+      <c r="V143" s="27"/>
+    </row>
+    <row r="144" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="13"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" s="14">
+        <v>350</v>
+      </c>
+      <c r="F144" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G144" s="14">
+        <v>3</v>
+      </c>
+      <c r="H144" s="14"/>
+      <c r="I144" s="14"/>
+    </row>
+    <row r="145" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B145" s="13"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G145" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="H145" s="14"/>
+      <c r="I145" s="14"/>
+      <c r="O145" s="42"/>
+      <c r="P145" s="43"/>
+      <c r="Q145" s="43"/>
+      <c r="R145" s="43"/>
+      <c r="S145" s="43"/>
+      <c r="T145" s="43"/>
+      <c r="U145" s="43"/>
+      <c r="V145" s="44"/>
+    </row>
+    <row r="146" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B146" s="13"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="14"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="14"/>
+      <c r="O146" s="45"/>
+      <c r="P146" s="46"/>
+      <c r="Q146" s="46"/>
+      <c r="R146" s="46"/>
+      <c r="S146" s="46"/>
+      <c r="T146" s="46"/>
+      <c r="U146" s="46"/>
+      <c r="V146" s="47"/>
+    </row>
+    <row r="147" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="13">
+        <v>45243</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" s="14">
+        <v>350</v>
+      </c>
+      <c r="F147" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G147" s="14">
+        <v>21</v>
+      </c>
+      <c r="H147" s="14">
+        <v>33</v>
+      </c>
+      <c r="I147" s="14"/>
+      <c r="O147" s="29"/>
+      <c r="P147" s="30"/>
+      <c r="Q147" s="31"/>
+      <c r="R147" s="30"/>
+      <c r="S147" s="30"/>
+      <c r="T147" s="30"/>
+      <c r="U147" s="30"/>
+      <c r="V147" s="32"/>
+    </row>
+    <row r="148" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B148" s="13"/>
+      <c r="C148" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" s="14">
+        <v>200</v>
+      </c>
+      <c r="F148" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G148" s="14">
+        <v>11</v>
+      </c>
+      <c r="H148" s="14"/>
+      <c r="I148" s="14"/>
+    </row>
+    <row r="149" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B149" s="13"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="14"/>
+      <c r="H149" s="14"/>
+      <c r="I149" s="14"/>
+    </row>
+    <row r="150" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B150" s="13">
+        <v>45250</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150" s="14">
+        <v>350</v>
+      </c>
+      <c r="F150" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G150" s="14">
+        <v>21</v>
+      </c>
+      <c r="H150" s="14">
+        <v>27</v>
+      </c>
+      <c r="I150" s="14"/>
+    </row>
+    <row r="151" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B151" s="13"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151" s="14">
+        <v>200</v>
+      </c>
+      <c r="F151" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G151" s="14">
+        <v>6</v>
+      </c>
+      <c r="H151" s="14"/>
+      <c r="I151" s="14"/>
+    </row>
+    <row r="152" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B152" s="13"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="14"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="14"/>
+      <c r="H152" s="14"/>
+      <c r="I152" s="14"/>
+    </row>
+    <row r="153" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B153" s="13">
+        <v>45251</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" s="14">
+        <v>350</v>
+      </c>
+      <c r="F153" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G153" s="14">
+        <v>36</v>
+      </c>
+      <c r="H153" s="14">
+        <v>52</v>
+      </c>
+      <c r="I153" s="14"/>
+    </row>
+    <row r="154" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B154" s="13"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" s="14">
+        <v>350</v>
+      </c>
+      <c r="F154" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G154" s="14">
+        <v>7</v>
+      </c>
+      <c r="H154" s="14"/>
+      <c r="I154" s="14"/>
+    </row>
+    <row r="155" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B155" s="13"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" s="14">
+        <v>350</v>
+      </c>
+      <c r="F155" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G155" s="14">
+        <v>9</v>
+      </c>
+      <c r="H155" s="14"/>
+      <c r="I155" s="14"/>
+    </row>
+    <row r="156" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B156" s="13"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="14"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="14"/>
+      <c r="H156" s="14"/>
+      <c r="I156" s="14"/>
+    </row>
+    <row r="157" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B157" s="13">
+        <v>45259</v>
+      </c>
+      <c r="C157" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157" s="14">
+        <v>350</v>
+      </c>
+      <c r="F157" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G157" s="14">
+        <v>11</v>
+      </c>
+      <c r="H157" s="14">
+        <v>11</v>
+      </c>
+      <c r="I157" s="14"/>
+    </row>
+    <row r="158" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B158" s="13"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="14"/>
+      <c r="H158" s="14"/>
+      <c r="I158" s="14"/>
+      <c r="L158" s="2">
+        <f>54+68+81+87+55+61+52</f>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="159" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B159" s="13"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="14"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="14"/>
+      <c r="H159" s="14"/>
+      <c r="I159" s="14"/>
+    </row>
+    <row r="160" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B160" s="8">
+        <f>SUBTOTAL(103,Tableau1[Date])</f>
+        <v>49</v>
+      </c>
+      <c r="C160" s="40"/>
+      <c r="D160" s="40"/>
+      <c r="E160" s="40"/>
+      <c r="F160" s="40"/>
+      <c r="G160" s="40">
+        <f>SUBTOTAL(109,Tableau1[Quantité d''element M³])</f>
+        <v>2414</v>
+      </c>
+      <c r="H160" s="40">
+        <f>SUBTOTAL(109,Tableau1[Q journée])</f>
+        <v>2770</v>
+      </c>
+      <c r="I160" s="40"/>
+    </row>
+    <row r="161" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="I161" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C164" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D164" s="2">
         <f>91*2.8*150</f>
         <v>38220</v>
       </c>
-      <c r="O138" s="39"/>
-      <c r="P138" s="40"/>
-      <c r="Q138" s="40"/>
-      <c r="R138" s="40"/>
-      <c r="S138" s="40"/>
-      <c r="T138" s="40"/>
-      <c r="U138" s="40"/>
-      <c r="V138" s="41"/>
-    </row>
-    <row r="139" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="O139" s="42"/>
-      <c r="P139" s="43"/>
-      <c r="Q139" s="43"/>
-      <c r="R139" s="43"/>
-      <c r="S139" s="43"/>
-      <c r="T139" s="43"/>
-      <c r="U139" s="43"/>
-      <c r="V139" s="44"/>
-    </row>
-    <row r="140" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O140" s="29"/>
-      <c r="P140" s="30"/>
-      <c r="Q140" s="31"/>
-      <c r="R140" s="30"/>
-      <c r="S140" s="30"/>
-      <c r="T140" s="30"/>
-      <c r="U140" s="30"/>
-      <c r="V140" s="32"/>
+    </row>
+    <row r="167" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K167" s="2">
+        <v>458</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="K23:K25"/>
     <mergeCell ref="J26:J28"/>
-    <mergeCell ref="O138:V139"/>
+    <mergeCell ref="O145:V146"/>
     <mergeCell ref="O103:V103"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:O15 E8:E61" xr:uid="{A3857ED9-0466-4DDA-A63C-BB70F7F76C8E}">
       <formula1>Dosage</formula1>
     </dataValidation>
